--- a/FileTemplate/津貼匯入範本.xlsx
+++ b/FileTemplate/津貼匯入範本.xlsx
@@ -73,7 +73,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(YYYYMMDD)</t>
+      <t>(YYYY/MM/DD)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -205,8 +205,36 @@
     <cellStyle name="一般 3 2" xfId="1"/>
     <cellStyle name="千分位 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,7 +533,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
